--- a/mysql/Wave_template.xlsx
+++ b/mysql/Wave_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhatv\Work\TechnoStar\go-lang\mysql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhatv\Work\TechnoStar\jmu-dt\public\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B290E08-B2C8-442A-9F8B-0D872323BAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D166B9A3-1214-45B3-AD87-18733533B5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{12FE9988-3862-4B98-BA55-C34670100BC1}"/>
   </bookViews>
@@ -103,23 +103,161 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -615,6 +753,18 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{169B052B-FD35-47DB-9797-C03D9054DC73}" name="Table1" displayName="Table1" ref="A1:C10646" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="Accent1">
+  <autoFilter ref="A1:C10646" xr:uid="{169B052B-FD35-47DB-9797-C03D9054DC73}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C38ADD47-E54D-4105-8292-02224B0914F9}" name="datetime" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{5E7A1439-9070-422A-8170-1425B89F9793}" name="WaveHeight" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A4508100-6B7B-4176-9E49-B8E59A1C9120}" name="WavePeriod" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -916,931 +1066,934 @@
   <dimension ref="A1:C950"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="3" customWidth="1"/>
-    <col min="2" max="3" width="17" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" style="5" customWidth="1"/>
+    <col min="2" max="3" width="17" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A650" s="2"/>
+      <c r="A650" s="6"/>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A651" s="2"/>
+      <c r="A651" s="6"/>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A652" s="2"/>
+      <c r="A652" s="6"/>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A653" s="2"/>
+      <c r="A653" s="6"/>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A654" s="2"/>
+      <c r="A654" s="6"/>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A655" s="2"/>
+      <c r="A655" s="6"/>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A656" s="2"/>
+      <c r="A656" s="6"/>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A657" s="2"/>
+      <c r="A657" s="6"/>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A658" s="2"/>
+      <c r="A658" s="6"/>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A659" s="2"/>
+      <c r="A659" s="6"/>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A660" s="2"/>
+      <c r="A660" s="6"/>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A661" s="2"/>
+      <c r="A661" s="6"/>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A662" s="2"/>
+      <c r="A662" s="6"/>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A663" s="2"/>
+      <c r="A663" s="6"/>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A664" s="2"/>
+      <c r="A664" s="6"/>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A665" s="2"/>
+      <c r="A665" s="6"/>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A666" s="2"/>
+      <c r="A666" s="6"/>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A667" s="2"/>
+      <c r="A667" s="6"/>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A668" s="2"/>
+      <c r="A668" s="6"/>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A669" s="2"/>
+      <c r="A669" s="6"/>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A670" s="2"/>
+      <c r="A670" s="6"/>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A671" s="2"/>
+      <c r="A671" s="6"/>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A672" s="2"/>
+      <c r="A672" s="6"/>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A673" s="2"/>
+      <c r="A673" s="6"/>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A674" s="2"/>
+      <c r="A674" s="6"/>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A675" s="2"/>
+      <c r="A675" s="6"/>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A676" s="2"/>
+      <c r="A676" s="6"/>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A677" s="2"/>
+      <c r="A677" s="6"/>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A678" s="2"/>
+      <c r="A678" s="6"/>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A679" s="2"/>
+      <c r="A679" s="6"/>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A680" s="2"/>
+      <c r="A680" s="6"/>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A681" s="2"/>
+      <c r="A681" s="6"/>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A682" s="2"/>
+      <c r="A682" s="6"/>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A683" s="2"/>
+      <c r="A683" s="6"/>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A684" s="2"/>
+      <c r="A684" s="6"/>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A685" s="2"/>
+      <c r="A685" s="6"/>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A686" s="2"/>
+      <c r="A686" s="6"/>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A687" s="2"/>
+      <c r="A687" s="6"/>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A688" s="2"/>
+      <c r="A688" s="6"/>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A689" s="2"/>
+      <c r="A689" s="6"/>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A690" s="2"/>
+      <c r="A690" s="6"/>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A691" s="2"/>
+      <c r="A691" s="6"/>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A692" s="2"/>
+      <c r="A692" s="6"/>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A693" s="2"/>
+      <c r="A693" s="6"/>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A694" s="2"/>
+      <c r="A694" s="6"/>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A695" s="2"/>
+      <c r="A695" s="6"/>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A696" s="2"/>
+      <c r="A696" s="6"/>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A697" s="2"/>
+      <c r="A697" s="6"/>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A698" s="2"/>
+      <c r="A698" s="6"/>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A699" s="2"/>
+      <c r="A699" s="6"/>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A700" s="2"/>
+      <c r="A700" s="6"/>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A701" s="2"/>
+      <c r="A701" s="6"/>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A702" s="2"/>
+      <c r="A702" s="6"/>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A703" s="2"/>
+      <c r="A703" s="6"/>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A704" s="2"/>
+      <c r="A704" s="6"/>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A705" s="2"/>
+      <c r="A705" s="6"/>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A706" s="2"/>
+      <c r="A706" s="6"/>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A707" s="2"/>
+      <c r="A707" s="6"/>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A708" s="2"/>
+      <c r="A708" s="6"/>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A709" s="2"/>
+      <c r="A709" s="6"/>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A710" s="2"/>
+      <c r="A710" s="6"/>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A711" s="2"/>
+      <c r="A711" s="6"/>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A712" s="2"/>
+      <c r="A712" s="6"/>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A713" s="2"/>
+      <c r="A713" s="6"/>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A714" s="2"/>
+      <c r="A714" s="6"/>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A715" s="2"/>
+      <c r="A715" s="6"/>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A716" s="2"/>
+      <c r="A716" s="6"/>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A717" s="2"/>
+      <c r="A717" s="6"/>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A718" s="2"/>
+      <c r="A718" s="6"/>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A719" s="2"/>
+      <c r="A719" s="6"/>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A720" s="2"/>
+      <c r="A720" s="6"/>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A721" s="2"/>
+      <c r="A721" s="6"/>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A722" s="2"/>
+      <c r="A722" s="6"/>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A723" s="2"/>
+      <c r="A723" s="6"/>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A724" s="2"/>
+      <c r="A724" s="6"/>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A725" s="2"/>
+      <c r="A725" s="6"/>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A726" s="2"/>
+      <c r="A726" s="6"/>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A727" s="2"/>
+      <c r="A727" s="6"/>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A728" s="2"/>
+      <c r="A728" s="6"/>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A729" s="2"/>
+      <c r="A729" s="6"/>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A730" s="2"/>
+      <c r="A730" s="6"/>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A731" s="2"/>
+      <c r="A731" s="6"/>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A732" s="2"/>
+      <c r="A732" s="6"/>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A733" s="2"/>
+      <c r="A733" s="6"/>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A734" s="2"/>
+      <c r="A734" s="6"/>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A735" s="2"/>
+      <c r="A735" s="6"/>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A736" s="2"/>
+      <c r="A736" s="6"/>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A737" s="2"/>
+      <c r="A737" s="6"/>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A738" s="2"/>
+      <c r="A738" s="6"/>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A739" s="2"/>
+      <c r="A739" s="6"/>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A740" s="2"/>
+      <c r="A740" s="6"/>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A741" s="2"/>
+      <c r="A741" s="6"/>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A742" s="2"/>
+      <c r="A742" s="6"/>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A743" s="2"/>
+      <c r="A743" s="6"/>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A744" s="2"/>
+      <c r="A744" s="6"/>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A745" s="2"/>
+      <c r="A745" s="6"/>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A746" s="2"/>
+      <c r="A746" s="6"/>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A747" s="2"/>
+      <c r="A747" s="6"/>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A748" s="2"/>
+      <c r="A748" s="6"/>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A749" s="2"/>
+      <c r="A749" s="6"/>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A750" s="2"/>
+      <c r="A750" s="6"/>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A751" s="2"/>
+      <c r="A751" s="6"/>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A752" s="2"/>
+      <c r="A752" s="6"/>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A753" s="2"/>
+      <c r="A753" s="6"/>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A754" s="2"/>
+      <c r="A754" s="6"/>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A755" s="2"/>
+      <c r="A755" s="6"/>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A756" s="2"/>
+      <c r="A756" s="6"/>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A757" s="2"/>
+      <c r="A757" s="6"/>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A758" s="2"/>
+      <c r="A758" s="6"/>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A759" s="2"/>
+      <c r="A759" s="6"/>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A760" s="2"/>
+      <c r="A760" s="6"/>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A761" s="2"/>
+      <c r="A761" s="6"/>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A762" s="2"/>
+      <c r="A762" s="6"/>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A763" s="2"/>
+      <c r="A763" s="6"/>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A764" s="2"/>
+      <c r="A764" s="6"/>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A765" s="2"/>
+      <c r="A765" s="6"/>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A766" s="2"/>
+      <c r="A766" s="6"/>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A767" s="2"/>
+      <c r="A767" s="6"/>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A768" s="2"/>
+      <c r="A768" s="6"/>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A769" s="2"/>
+      <c r="A769" s="6"/>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A770" s="2"/>
+      <c r="A770" s="6"/>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A771" s="2"/>
+      <c r="A771" s="6"/>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A772" s="2"/>
+      <c r="A772" s="6"/>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A773" s="2"/>
+      <c r="A773" s="6"/>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A774" s="2"/>
+      <c r="A774" s="6"/>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A775" s="2"/>
+      <c r="A775" s="6"/>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A776" s="2"/>
+      <c r="A776" s="6"/>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A777" s="2"/>
+      <c r="A777" s="6"/>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A778" s="2"/>
+      <c r="A778" s="6"/>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A779" s="2"/>
+      <c r="A779" s="6"/>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A780" s="2"/>
+      <c r="A780" s="6"/>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A781" s="2"/>
+      <c r="A781" s="6"/>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A782" s="2"/>
+      <c r="A782" s="6"/>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A783" s="2"/>
+      <c r="A783" s="6"/>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A784" s="2"/>
+      <c r="A784" s="6"/>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A785" s="2"/>
+      <c r="A785" s="6"/>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A786" s="2"/>
+      <c r="A786" s="6"/>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A787" s="2"/>
+      <c r="A787" s="6"/>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A788" s="2"/>
+      <c r="A788" s="6"/>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A789" s="2"/>
+      <c r="A789" s="6"/>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A790" s="2"/>
+      <c r="A790" s="6"/>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A791" s="2"/>
+      <c r="A791" s="6"/>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A792" s="2"/>
+      <c r="A792" s="6"/>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A793" s="2"/>
+      <c r="A793" s="6"/>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A794" s="2"/>
+      <c r="A794" s="6"/>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A795" s="2"/>
+      <c r="A795" s="6"/>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A796" s="2"/>
+      <c r="A796" s="6"/>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A797" s="2"/>
+      <c r="A797" s="6"/>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A798" s="2"/>
+      <c r="A798" s="6"/>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A799" s="2"/>
+      <c r="A799" s="6"/>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A800" s="2"/>
+      <c r="A800" s="6"/>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A801" s="2"/>
+      <c r="A801" s="6"/>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A802" s="2"/>
+      <c r="A802" s="6"/>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A803" s="2"/>
+      <c r="A803" s="6"/>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A804" s="2"/>
+      <c r="A804" s="6"/>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A805" s="2"/>
+      <c r="A805" s="6"/>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A806" s="2"/>
+      <c r="A806" s="6"/>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A807" s="2"/>
+      <c r="A807" s="6"/>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A808" s="2"/>
+      <c r="A808" s="6"/>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A809" s="2"/>
+      <c r="A809" s="6"/>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A810" s="2"/>
+      <c r="A810" s="6"/>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A811" s="2"/>
+      <c r="A811" s="6"/>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A812" s="2"/>
+      <c r="A812" s="6"/>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A813" s="2"/>
+      <c r="A813" s="6"/>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A814" s="2"/>
+      <c r="A814" s="6"/>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A815" s="2"/>
+      <c r="A815" s="6"/>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A816" s="2"/>
+      <c r="A816" s="6"/>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A817" s="2"/>
+      <c r="A817" s="6"/>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A818" s="2"/>
+      <c r="A818" s="6"/>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A819" s="2"/>
+      <c r="A819" s="6"/>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A820" s="2"/>
+      <c r="A820" s="6"/>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A821" s="2"/>
+      <c r="A821" s="6"/>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A822" s="2"/>
+      <c r="A822" s="6"/>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A823" s="2"/>
+      <c r="A823" s="6"/>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A824" s="2"/>
+      <c r="A824" s="6"/>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A825" s="2"/>
+      <c r="A825" s="6"/>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A826" s="2"/>
+      <c r="A826" s="6"/>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A827" s="2"/>
+      <c r="A827" s="6"/>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A828" s="2"/>
+      <c r="A828" s="6"/>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A829" s="2"/>
+      <c r="A829" s="6"/>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A830" s="2"/>
+      <c r="A830" s="6"/>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A831" s="2"/>
+      <c r="A831" s="6"/>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A832" s="2"/>
+      <c r="A832" s="6"/>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A833" s="2"/>
+      <c r="A833" s="6"/>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A834" s="2"/>
+      <c r="A834" s="6"/>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A835" s="2"/>
+      <c r="A835" s="6"/>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A836" s="2"/>
+      <c r="A836" s="6"/>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A837" s="2"/>
+      <c r="A837" s="6"/>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A838" s="2"/>
+      <c r="A838" s="6"/>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A839" s="2"/>
+      <c r="A839" s="6"/>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A840" s="2"/>
+      <c r="A840" s="6"/>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A841" s="2"/>
+      <c r="A841" s="6"/>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A842" s="2"/>
+      <c r="A842" s="6"/>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A843" s="2"/>
+      <c r="A843" s="6"/>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A844" s="2"/>
+      <c r="A844" s="6"/>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A845" s="2"/>
+      <c r="A845" s="6"/>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A846" s="2"/>
+      <c r="A846" s="6"/>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A847" s="2"/>
+      <c r="A847" s="6"/>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A848" s="2"/>
+      <c r="A848" s="6"/>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A849" s="2"/>
+      <c r="A849" s="6"/>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A850" s="2"/>
+      <c r="A850" s="6"/>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A851" s="2"/>
+      <c r="A851" s="6"/>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A852" s="2"/>
+      <c r="A852" s="6"/>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A853" s="2"/>
+      <c r="A853" s="6"/>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A854" s="2"/>
+      <c r="A854" s="6"/>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A855" s="2"/>
+      <c r="A855" s="6"/>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A856" s="2"/>
+      <c r="A856" s="6"/>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A857" s="2"/>
+      <c r="A857" s="6"/>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A858" s="2"/>
+      <c r="A858" s="6"/>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A859" s="2"/>
+      <c r="A859" s="6"/>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A860" s="2"/>
+      <c r="A860" s="6"/>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A861" s="2"/>
+      <c r="A861" s="6"/>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A862" s="2"/>
+      <c r="A862" s="6"/>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A863" s="2"/>
+      <c r="A863" s="6"/>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A864" s="2"/>
+      <c r="A864" s="6"/>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A865" s="2"/>
+      <c r="A865" s="6"/>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A866" s="2"/>
+      <c r="A866" s="6"/>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A867" s="2"/>
+      <c r="A867" s="6"/>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A868" s="2"/>
+      <c r="A868" s="6"/>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A869" s="2"/>
+      <c r="A869" s="6"/>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A870" s="2"/>
+      <c r="A870" s="6"/>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A871" s="2"/>
+      <c r="A871" s="6"/>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A872" s="2"/>
+      <c r="A872" s="6"/>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A873" s="2"/>
+      <c r="A873" s="6"/>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A874" s="2"/>
+      <c r="A874" s="6"/>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A875" s="2"/>
+      <c r="A875" s="6"/>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A876" s="2"/>
+      <c r="A876" s="6"/>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A877" s="2"/>
+      <c r="A877" s="6"/>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A878" s="2"/>
+      <c r="A878" s="6"/>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A879" s="2"/>
+      <c r="A879" s="6"/>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A880" s="2"/>
+      <c r="A880" s="6"/>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A881" s="2"/>
+      <c r="A881" s="6"/>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A882" s="2"/>
+      <c r="A882" s="6"/>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A883" s="2"/>
+      <c r="A883" s="6"/>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A884" s="2"/>
+      <c r="A884" s="6"/>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A885" s="2"/>
+      <c r="A885" s="6"/>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A886" s="2"/>
+      <c r="A886" s="6"/>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A887" s="2"/>
+      <c r="A887" s="6"/>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A888" s="2"/>
+      <c r="A888" s="6"/>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A889" s="2"/>
+      <c r="A889" s="6"/>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A890" s="2"/>
+      <c r="A890" s="6"/>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A891" s="2"/>
+      <c r="A891" s="6"/>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A892" s="2"/>
+      <c r="A892" s="6"/>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A893" s="2"/>
+      <c r="A893" s="6"/>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A894" s="2"/>
+      <c r="A894" s="6"/>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A895" s="2"/>
+      <c r="A895" s="6"/>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A896" s="2"/>
+      <c r="A896" s="6"/>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A897" s="2"/>
+      <c r="A897" s="6"/>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A898" s="2"/>
+      <c r="A898" s="6"/>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A899" s="2"/>
+      <c r="A899" s="6"/>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A900" s="2"/>
+      <c r="A900" s="6"/>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A901" s="2"/>
+      <c r="A901" s="6"/>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A902" s="2"/>
+      <c r="A902" s="6"/>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A903" s="2"/>
+      <c r="A903" s="6"/>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A904" s="2"/>
+      <c r="A904" s="6"/>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A905" s="2"/>
+      <c r="A905" s="6"/>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A906" s="2"/>
+      <c r="A906" s="6"/>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A907" s="2"/>
+      <c r="A907" s="6"/>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A908" s="2"/>
+      <c r="A908" s="6"/>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A909" s="2"/>
+      <c r="A909" s="6"/>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A910" s="2"/>
+      <c r="A910" s="6"/>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A911" s="2"/>
+      <c r="A911" s="6"/>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A912" s="2"/>
+      <c r="A912" s="6"/>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A913" s="2"/>
+      <c r="A913" s="6"/>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A914" s="2"/>
+      <c r="A914" s="6"/>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A915" s="2"/>
+      <c r="A915" s="6"/>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A916" s="2"/>
+      <c r="A916" s="6"/>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A917" s="2"/>
+      <c r="A917" s="6"/>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A918" s="2"/>
+      <c r="A918" s="6"/>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A919" s="2"/>
+      <c r="A919" s="6"/>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A920" s="2"/>
+      <c r="A920" s="6"/>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A921" s="2"/>
+      <c r="A921" s="6"/>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A922" s="2"/>
+      <c r="A922" s="6"/>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A923" s="2"/>
+      <c r="A923" s="6"/>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A924" s="2"/>
+      <c r="A924" s="6"/>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A925" s="2"/>
+      <c r="A925" s="6"/>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A926" s="2"/>
+      <c r="A926" s="6"/>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A927" s="2"/>
+      <c r="A927" s="6"/>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A928" s="2"/>
+      <c r="A928" s="6"/>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A929" s="2"/>
+      <c r="A929" s="6"/>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A930" s="2"/>
+      <c r="A930" s="6"/>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A931" s="2"/>
+      <c r="A931" s="6"/>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A932" s="2"/>
+      <c r="A932" s="6"/>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A933" s="2"/>
+      <c r="A933" s="6"/>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A934" s="2"/>
+      <c r="A934" s="6"/>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A935" s="2"/>
+      <c r="A935" s="6"/>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A936" s="2"/>
+      <c r="A936" s="6"/>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A937" s="2"/>
+      <c r="A937" s="6"/>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A938" s="2"/>
+      <c r="A938" s="6"/>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A939" s="2"/>
+      <c r="A939" s="6"/>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A940" s="2"/>
+      <c r="A940" s="6"/>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A941" s="2"/>
+      <c r="A941" s="6"/>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A942" s="2"/>
+      <c r="A942" s="6"/>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A943" s="2"/>
+      <c r="A943" s="6"/>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A944" s="2"/>
+      <c r="A944" s="6"/>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A945" s="2"/>
+      <c r="A945" s="6"/>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A946" s="2"/>
+      <c r="A946" s="6"/>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A947" s="2"/>
+      <c r="A947" s="6"/>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A948" s="2"/>
+      <c r="A948" s="6"/>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A949" s="2"/>
+      <c r="A949" s="6"/>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A950" s="2"/>
+      <c r="A950" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1867,16 +2020,16 @@
   </cols>
   <sheetData>
     <row r="4" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J4" s="4"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J5" s="4"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="8" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J8" s="5"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="3"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
@@ -1884,10 +2037,10 @@
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="3"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C35" s="3"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
